--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt8a-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt8a-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Wnt8a</t>
+  </si>
+  <si>
+    <t>Fzd8</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt8a</t>
-  </si>
-  <si>
-    <t>Fzd8</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>17.26090233333333</v>
+        <v>0.177397</v>
       </c>
       <c r="H2">
-        <v>51.782707</v>
+        <v>0.532191</v>
       </c>
       <c r="I2">
-        <v>0.9873351240828326</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9873351240828326</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N2">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q2">
-        <v>38.314490953663</v>
+        <v>0.536572883297</v>
       </c>
       <c r="R2">
-        <v>344.830418582967</v>
+        <v>4.829155949673</v>
       </c>
       <c r="S2">
-        <v>0.1268255047003818</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="T2">
-        <v>0.1268255047003818</v>
+        <v>0.1596375877334843</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>17.26090233333333</v>
+        <v>0.177397</v>
       </c>
       <c r="H3">
-        <v>51.782707</v>
+        <v>0.532191</v>
       </c>
       <c r="I3">
-        <v>0.9873351240828326</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9873351240828326</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.517578</v>
       </c>
       <c r="O3">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P3">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q3">
-        <v>198.6015142137385</v>
+        <v>2.041104928155333</v>
       </c>
       <c r="R3">
-        <v>1787.413627923646</v>
+        <v>18.369944353398</v>
       </c>
       <c r="S3">
-        <v>0.6573945430954339</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="T3">
-        <v>0.6573945430954338</v>
+        <v>0.6072559333217163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>17.26090233333333</v>
+        <v>0.177397</v>
       </c>
       <c r="H4">
-        <v>51.782707</v>
+        <v>0.532191</v>
       </c>
       <c r="I4">
-        <v>0.9873351240828326</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9873351240828326</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N4">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q4">
-        <v>61.17775860369222</v>
+        <v>0.7749684922026666</v>
       </c>
       <c r="R4">
-        <v>550.59982743323</v>
+        <v>6.974716429823999</v>
       </c>
       <c r="S4">
-        <v>0.2025056295471834</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="T4">
-        <v>0.2025056295471834</v>
+        <v>0.2305634602787257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,557 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>17.26090233333333</v>
+        <v>0.177397</v>
       </c>
       <c r="H5">
-        <v>51.782707</v>
+        <v>0.532191</v>
       </c>
       <c r="I5">
-        <v>0.9873351240828326</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9873351240828326</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N5">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q5">
-        <v>0.1841162915555556</v>
+        <v>0.008547578783333334</v>
       </c>
       <c r="R5">
-        <v>1.657046624</v>
+        <v>0.07692820905</v>
       </c>
       <c r="S5">
-        <v>0.0006094467398336547</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="T5">
-        <v>0.0006094467398336547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.177397</v>
-      </c>
-      <c r="H6">
-        <v>0.532191</v>
-      </c>
-      <c r="I6">
-        <v>0.01014722669907478</v>
-      </c>
-      <c r="J6">
-        <v>0.01014722669907478</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>2.219727</v>
-      </c>
-      <c r="N6">
-        <v>6.659181</v>
-      </c>
-      <c r="O6">
-        <v>0.1284523376175785</v>
-      </c>
-      <c r="P6">
-        <v>0.1284523376175785</v>
-      </c>
-      <c r="Q6">
-        <v>0.393772910619</v>
-      </c>
-      <c r="R6">
-        <v>3.543956195571</v>
-      </c>
-      <c r="S6">
-        <v>0.001303434989831661</v>
-      </c>
-      <c r="T6">
-        <v>0.001303434989831661</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.177397</v>
-      </c>
-      <c r="H7">
-        <v>0.532191</v>
-      </c>
-      <c r="I7">
-        <v>0.01014722669907478</v>
-      </c>
-      <c r="J7">
-        <v>0.01014722669907478</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>11.50585933333333</v>
-      </c>
-      <c r="N7">
-        <v>34.517578</v>
-      </c>
-      <c r="O7">
-        <v>0.6658271614778304</v>
-      </c>
-      <c r="P7">
-        <v>0.6658271614778303</v>
-      </c>
-      <c r="Q7">
-        <v>2.041104928155333</v>
-      </c>
-      <c r="R7">
-        <v>18.369944353398</v>
-      </c>
-      <c r="S7">
-        <v>0.006756299149917018</v>
-      </c>
-      <c r="T7">
-        <v>0.006756299149917018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.177397</v>
-      </c>
-      <c r="H8">
-        <v>0.532191</v>
-      </c>
-      <c r="I8">
-        <v>0.01014722669907478</v>
-      </c>
-      <c r="J8">
-        <v>0.01014722669907478</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>3.544296666666666</v>
-      </c>
-      <c r="N8">
-        <v>10.63289</v>
-      </c>
-      <c r="O8">
-        <v>0.2051032365887898</v>
-      </c>
-      <c r="P8">
-        <v>0.2051032365887898</v>
-      </c>
-      <c r="Q8">
-        <v>0.6287475957766666</v>
-      </c>
-      <c r="R8">
-        <v>5.65872836199</v>
-      </c>
-      <c r="S8">
-        <v>0.002081229038380421</v>
-      </c>
-      <c r="T8">
-        <v>0.00208122903838042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.177397</v>
-      </c>
-      <c r="H9">
-        <v>0.532191</v>
-      </c>
-      <c r="I9">
-        <v>0.01014722669907478</v>
-      </c>
-      <c r="J9">
-        <v>0.01014722669907478</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01066666666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.032</v>
-      </c>
-      <c r="O9">
-        <v>0.0006172643158013743</v>
-      </c>
-      <c r="P9">
-        <v>0.0006172643158013743</v>
-      </c>
-      <c r="Q9">
-        <v>0.001892234666666667</v>
-      </c>
-      <c r="R9">
-        <v>0.017030112</v>
-      </c>
-      <c r="S9">
-        <v>6.263520945685834E-06</v>
-      </c>
-      <c r="T9">
-        <v>6.263520945685834E-06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.04401433333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.132043</v>
-      </c>
-      <c r="I10">
-        <v>0.002517649218092624</v>
-      </c>
-      <c r="J10">
-        <v>0.002517649218092624</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>2.219727</v>
-      </c>
-      <c r="N10">
-        <v>6.659181</v>
-      </c>
-      <c r="O10">
-        <v>0.1284523376175785</v>
-      </c>
-      <c r="P10">
-        <v>0.1284523376175785</v>
-      </c>
-      <c r="Q10">
-        <v>0.09769980408700001</v>
-      </c>
-      <c r="R10">
-        <v>0.879298236783</v>
-      </c>
-      <c r="S10">
-        <v>0.0003233979273650663</v>
-      </c>
-      <c r="T10">
-        <v>0.0003233979273650663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.04401433333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.132043</v>
-      </c>
-      <c r="I11">
-        <v>0.002517649218092624</v>
-      </c>
-      <c r="J11">
-        <v>0.002517649218092624</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>11.50585933333333</v>
-      </c>
-      <c r="N11">
-        <v>34.517578</v>
-      </c>
-      <c r="O11">
-        <v>0.6658271614778304</v>
-      </c>
-      <c r="P11">
-        <v>0.6658271614778303</v>
-      </c>
-      <c r="Q11">
-        <v>0.5064227279837777</v>
-      </c>
-      <c r="R11">
-        <v>4.557804551854</v>
-      </c>
-      <c r="S11">
-        <v>0.001676319232479491</v>
-      </c>
-      <c r="T11">
-        <v>0.001676319232479491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.04401433333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.132043</v>
-      </c>
-      <c r="I12">
-        <v>0.002517649218092624</v>
-      </c>
-      <c r="J12">
-        <v>0.002517649218092624</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>3.544296666666666</v>
-      </c>
-      <c r="N12">
-        <v>10.63289</v>
-      </c>
-      <c r="O12">
-        <v>0.2051032365887898</v>
-      </c>
-      <c r="P12">
-        <v>0.2051032365887898</v>
-      </c>
-      <c r="Q12">
-        <v>0.1559998549188889</v>
-      </c>
-      <c r="R12">
-        <v>1.40399869427</v>
-      </c>
-      <c r="S12">
-        <v>0.0005163780032260332</v>
-      </c>
-      <c r="T12">
-        <v>0.0005163780032260332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.04401433333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.132043</v>
-      </c>
-      <c r="I13">
-        <v>0.002517649218092624</v>
-      </c>
-      <c r="J13">
-        <v>0.002517649218092624</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.01066666666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.032</v>
-      </c>
-      <c r="O13">
-        <v>0.0006172643158013743</v>
-      </c>
-      <c r="P13">
-        <v>0.0006172643158013743</v>
-      </c>
-      <c r="Q13">
-        <v>0.0004694862222222221</v>
-      </c>
-      <c r="R13">
-        <v>0.004225376</v>
-      </c>
-      <c r="S13">
-        <v>1.554055022033808E-06</v>
-      </c>
-      <c r="T13">
-        <v>1.554055022033808E-06</v>
+        <v>0.002543018666073677</v>
       </c>
     </row>
   </sheetData>
